--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col4a3</t>
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H2">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I2">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J2">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>6.483475127930668</v>
+        <v>3.727692061399</v>
       </c>
       <c r="R2">
-        <v>58.35127615137601</v>
+        <v>33.549228552591</v>
       </c>
       <c r="S2">
-        <v>0.03614988046419505</v>
+        <v>0.03769828343279711</v>
       </c>
       <c r="T2">
-        <v>0.03614988046419505</v>
+        <v>0.0376982834327971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H3">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I3">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J3">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>29.14819523904889</v>
+        <v>13.69474495187833</v>
       </c>
       <c r="R3">
-        <v>262.33375715144</v>
+        <v>123.252704566905</v>
       </c>
       <c r="S3">
-        <v>0.162521449199258</v>
+        <v>0.1384954465745278</v>
       </c>
       <c r="T3">
-        <v>0.162521449199258</v>
+        <v>0.1384954465745278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H4">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I4">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J4">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>32.18410485633778</v>
+        <v>13.145042905085</v>
       </c>
       <c r="R4">
-        <v>289.6569437070401</v>
+        <v>118.305386145765</v>
       </c>
       <c r="S4">
-        <v>0.1794487555588216</v>
+        <v>0.1329362900717167</v>
       </c>
       <c r="T4">
-        <v>0.1794487555588216</v>
+        <v>0.1329362900717167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H5">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I5">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J5">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>5.133236235873778</v>
+        <v>2.397339279276</v>
       </c>
       <c r="R5">
-        <v>46.199126122864</v>
+        <v>21.576053513484</v>
       </c>
       <c r="S5">
-        <v>0.02862136009775034</v>
+        <v>0.02424437806185265</v>
       </c>
       <c r="T5">
-        <v>0.02862136009775034</v>
+        <v>0.02424437806185264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3526986666666667</v>
+        <v>0.165709</v>
       </c>
       <c r="H6">
-        <v>1.058096</v>
+        <v>0.497127</v>
       </c>
       <c r="I6">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="J6">
-        <v>0.5665984632544969</v>
+        <v>0.4546154542569759</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>28.67032992902578</v>
+        <v>11.98859155497667</v>
       </c>
       <c r="R6">
-        <v>258.032969361232</v>
+        <v>107.89732399479</v>
       </c>
       <c r="S6">
-        <v>0.1598570179344719</v>
+        <v>0.1212410561160816</v>
       </c>
       <c r="T6">
-        <v>0.159857017934472</v>
+        <v>0.1212410561160816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.317432</v>
       </c>
       <c r="I7">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J7">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>1.945062146354667</v>
+        <v>2.380254434850667</v>
       </c>
       <c r="R7">
-        <v>17.505559317192</v>
+        <v>21.422289913656</v>
       </c>
       <c r="S7">
-        <v>0.01084507346735113</v>
+        <v>0.02407159841778791</v>
       </c>
       <c r="T7">
-        <v>0.01084507346735113</v>
+        <v>0.02407159841778791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.317432</v>
       </c>
       <c r="I8">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J8">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>8.744546724608888</v>
+        <v>8.744546724608886</v>
       </c>
       <c r="R8">
-        <v>78.70092052148</v>
+        <v>78.70092052147999</v>
       </c>
       <c r="S8">
-        <v>0.04875692627343724</v>
+        <v>0.08843391446661622</v>
       </c>
       <c r="T8">
-        <v>0.04875692627343724</v>
+        <v>0.08843391446661619</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.317432</v>
       </c>
       <c r="I9">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J9">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>9.655328791297777</v>
+        <v>8.393543821693331</v>
       </c>
       <c r="R9">
-        <v>86.89795912168</v>
+        <v>75.54189439523999</v>
       </c>
       <c r="S9">
-        <v>0.05383516937456323</v>
+        <v>0.08488420952803845</v>
       </c>
       <c r="T9">
-        <v>0.05383516937456324</v>
+        <v>0.08488420952803843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.317432</v>
       </c>
       <c r="I10">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J10">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>1.539986395209778</v>
+        <v>1.530780267616</v>
       </c>
       <c r="R10">
-        <v>13.859877556888</v>
+        <v>13.777022408544</v>
       </c>
       <c r="S10">
-        <v>0.008586494588911673</v>
+        <v>0.01548083571588349</v>
       </c>
       <c r="T10">
-        <v>0.008586494588911673</v>
+        <v>0.01548083571588348</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.317432</v>
       </c>
       <c r="I11">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080734</v>
       </c>
       <c r="J11">
-        <v>0.1699812525402246</v>
+        <v>0.2902869747080733</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>8.601185686393777</v>
+        <v>7.655111459404444</v>
       </c>
       <c r="R11">
-        <v>77.41067117754399</v>
+        <v>68.89600313464</v>
       </c>
       <c r="S11">
-        <v>0.04795758883596128</v>
+        <v>0.07741641657974728</v>
       </c>
       <c r="T11">
-        <v>0.0479575888359613</v>
+        <v>0.07741641657974728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H12">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I12">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J12">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>0.7720701614923334</v>
+        <v>0.024227557647</v>
       </c>
       <c r="R12">
-        <v>6.948631453431001</v>
+        <v>0.218048018823</v>
       </c>
       <c r="S12">
-        <v>0.004304827811813899</v>
+        <v>0.0002450141588997731</v>
       </c>
       <c r="T12">
-        <v>0.0043048278118139</v>
+        <v>0.000245014158899773</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H13">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I13">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J13">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>3.471047757779445</v>
+        <v>0.08900687538499999</v>
       </c>
       <c r="R13">
-        <v>31.239429820015</v>
+        <v>0.8010618784649999</v>
       </c>
       <c r="S13">
-        <v>0.01935350395479777</v>
+        <v>0.0009001297211422826</v>
       </c>
       <c r="T13">
-        <v>0.01935350395479777</v>
+        <v>0.0009001297211422822</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H14">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I14">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J14">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>3.832572276998889</v>
+        <v>0.08543417200499999</v>
       </c>
       <c r="R14">
-        <v>34.49315049299</v>
+        <v>0.7689075480449999</v>
       </c>
       <c r="S14">
-        <v>0.02136925444304399</v>
+        <v>0.0008639988437999076</v>
       </c>
       <c r="T14">
-        <v>0.021369254443044</v>
+        <v>0.0008639988437999074</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H15">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I15">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J15">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>0.6112799773898888</v>
+        <v>0.015581135628</v>
       </c>
       <c r="R15">
-        <v>5.501519796508999</v>
+        <v>0.140230220652</v>
       </c>
       <c r="S15">
-        <v>0.003408310771117782</v>
+        <v>0.0001575725830981739</v>
       </c>
       <c r="T15">
-        <v>0.003408310771117782</v>
+        <v>0.0001575725830981739</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04200033333333333</v>
+        <v>0.001077</v>
       </c>
       <c r="H16">
-        <v>0.126001</v>
+        <v>0.003231</v>
       </c>
       <c r="I16">
-        <v>0.06747211308664795</v>
+        <v>0.002954702787626279</v>
       </c>
       <c r="J16">
-        <v>0.06747211308664797</v>
+        <v>0.002954702787626278</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>3.414142234151889</v>
+        <v>0.07791799543</v>
       </c>
       <c r="R16">
-        <v>30.727280107367</v>
+        <v>0.70126195887</v>
       </c>
       <c r="S16">
-        <v>0.01903621610587451</v>
+        <v>0.0007879874806861422</v>
       </c>
       <c r="T16">
-        <v>0.01903621610587452</v>
+        <v>0.0007879874806861421</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H17">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I17">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J17">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>2.242196504582667</v>
+        <v>1.633586752938667</v>
       </c>
       <c r="R17">
-        <v>20.179768541244</v>
+        <v>14.702280776448</v>
       </c>
       <c r="S17">
-        <v>0.01250180405084237</v>
+        <v>0.01652052138696037</v>
       </c>
       <c r="T17">
-        <v>0.01250180405084237</v>
+        <v>0.01652052138696037</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H18">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I18">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J18">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>10.08039364542889</v>
+        <v>6.001449038648888</v>
       </c>
       <c r="R18">
-        <v>90.72354280885999</v>
+        <v>54.01304134783999</v>
       </c>
       <c r="S18">
-        <v>0.05620520139646049</v>
+        <v>0.06069286924455991</v>
       </c>
       <c r="T18">
-        <v>0.0562052013964605</v>
+        <v>0.0606928692445599</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H19">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I19">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J19">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>11.13030990141778</v>
+        <v>5.760553072213332</v>
       </c>
       <c r="R19">
-        <v>100.17278911276</v>
+        <v>51.84497764991999</v>
       </c>
       <c r="S19">
-        <v>0.0620592143143025</v>
+        <v>0.05825667970129144</v>
       </c>
       <c r="T19">
-        <v>0.06205921431430252</v>
+        <v>0.05825667970129143</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H20">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I20">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J20">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>1.775239993701778</v>
+        <v>1.050586160128</v>
       </c>
       <c r="R20">
-        <v>15.977159943316</v>
+        <v>9.455275441151999</v>
       </c>
       <c r="S20">
-        <v>0.009898196923917295</v>
+        <v>0.01062461549471859</v>
       </c>
       <c r="T20">
-        <v>0.009898196923917295</v>
+        <v>0.01062461549471859</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1219746666666667</v>
+        <v>0.07261866666666666</v>
       </c>
       <c r="H21">
-        <v>0.365924</v>
+        <v>0.217856</v>
       </c>
       <c r="I21">
-        <v>0.1959481711186305</v>
+        <v>0.1992261623339866</v>
       </c>
       <c r="J21">
-        <v>0.1959481711186306</v>
+        <v>0.1992261623339865</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>9.915132283789777</v>
+        <v>5.253761316124444</v>
       </c>
       <c r="R21">
-        <v>89.23619055410799</v>
+        <v>47.28385184512</v>
       </c>
       <c r="S21">
-        <v>0.05528375443310786</v>
+        <v>0.05313147650645626</v>
       </c>
       <c r="T21">
-        <v>0.05528375443310788</v>
+        <v>0.05313147650645626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.057865</v>
+      </c>
+      <c r="I22">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J22">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>22.495411</v>
+      </c>
+      <c r="N22">
+        <v>67.486233</v>
+      </c>
+      <c r="O22">
+        <v>0.08292345339295874</v>
+      </c>
+      <c r="P22">
+        <v>0.08292345339295874</v>
+      </c>
+      <c r="Q22">
+        <v>0.4338989858383334</v>
+      </c>
+      <c r="R22">
+        <v>3.905090872545</v>
+      </c>
+      <c r="S22">
+        <v>0.004388035996513577</v>
+      </c>
+      <c r="T22">
+        <v>0.004388035996513576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.057865</v>
+      </c>
+      <c r="I23">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J23">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N23">
+        <v>247.930015</v>
+      </c>
+      <c r="O23">
+        <v>0.3046430676248896</v>
+      </c>
+      <c r="P23">
+        <v>0.3046430676248896</v>
+      </c>
+      <c r="Q23">
+        <v>1.594052257552778</v>
+      </c>
+      <c r="R23">
+        <v>14.346470317975</v>
+      </c>
+      <c r="S23">
+        <v>0.01612070761804339</v>
+      </c>
+      <c r="T23">
+        <v>0.01612070761804338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.057865</v>
+      </c>
+      <c r="I24">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J24">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>79.32606499999999</v>
+      </c>
+      <c r="N24">
+        <v>237.978195</v>
+      </c>
+      <c r="O24">
+        <v>0.2924148064631633</v>
+      </c>
+      <c r="P24">
+        <v>0.2924148064631633</v>
+      </c>
+      <c r="Q24">
+        <v>1.530067583741666</v>
+      </c>
+      <c r="R24">
+        <v>13.770608253675</v>
+      </c>
+      <c r="S24">
+        <v>0.01547362831831682</v>
+      </c>
+      <c r="T24">
+        <v>0.01547362831831682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.057865</v>
+      </c>
+      <c r="I25">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J25">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.467164</v>
+      </c>
+      <c r="N25">
+        <v>43.401492</v>
+      </c>
+      <c r="O25">
+        <v>0.05332941903938943</v>
+      </c>
+      <c r="P25">
+        <v>0.05332941903938943</v>
+      </c>
+      <c r="Q25">
+        <v>0.27904748162</v>
+      </c>
+      <c r="R25">
+        <v>2.51142733458</v>
+      </c>
+      <c r="S25">
+        <v>0.002822017183836532</v>
+      </c>
+      <c r="T25">
+        <v>0.002822017183836532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.01928833333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.057865</v>
+      </c>
+      <c r="I26">
+        <v>0.05291670591333787</v>
+      </c>
+      <c r="J26">
+        <v>0.05291670591333786</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>72.34725666666667</v>
+      </c>
+      <c r="N26">
+        <v>217.04177</v>
+      </c>
+      <c r="O26">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="P26">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="Q26">
+        <v>1.395458002338889</v>
+      </c>
+      <c r="R26">
+        <v>12.55912202105</v>
+      </c>
+      <c r="S26">
+        <v>0.01411231679662755</v>
+      </c>
+      <c r="T26">
+        <v>0.01411231679662755</v>
       </c>
     </row>
   </sheetData>
